--- a/RUDN/Importance/Varible_f_class_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Eastern Asia.xlsx
@@ -304,12 +304,12 @@
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
@@ -784,10 +784,10 @@
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
@@ -1709,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>48542195.09541532</v>
+        <v>48542195.15152102</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>28398160.23489952</v>
+        <v>28398160.23489953</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11153147.3808103</v>
+        <v>11153147.37784743</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11038570.16829498</v>
+        <v>11038570.16688876</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2333402.938245405</v>
+        <v>2333402.938245404</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1526810.961703998</v>
+        <v>1526810.961750478</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>691383.5832953878</v>
+        <v>691383.5832857942</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>584698.9720509772</v>
+        <v>584698.9720441293</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>76712.07073726365</v>
+        <v>76712.07073738826</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>73789.022757552</v>
+        <v>73789.02275748797</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>59661.27943815776</v>
+        <v>59661.27943815773</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>17019.70364335139</v>
+        <v>17019.70364334538</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>10520.86453364036</v>
+        <v>10520.86453363924</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4246.630708989013</v>
+        <v>4246.630708986198</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2240.211677546048</v>
+        <v>2240.211677546049</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>2199.100898254974</v>
+        <v>2199.100898255198</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>2018.133596725346</v>
+        <v>2018.133596725285</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1726.554016365898</v>
+        <v>1726.554016365885</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1535.784558191182</v>
+        <v>1535.784558191144</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>1278.422093714076</v>
+        <v>1278.422093714173</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>1230.791717720992</v>
+        <v>1230.791717720964</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>1092.751736475755</v>
+        <v>1092.751736475733</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>968.4624944906536</v>
+        <v>968.4624944906717</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>883.3512307197985</v>
+        <v>883.3512307198139</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>863.4090748584858</v>
+        <v>863.4090748587311</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>720.8657061517697</v>
+        <v>720.8657061517783</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>697.8474439945791</v>
+        <v>697.8474439945795</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>697.8368514376723</v>
+        <v>697.8368514377325</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>639.7062166448184</v>
+        <v>639.7062166448201</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>620.7333722040941</v>
+        <v>620.7333722040972</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>620.7333722040941</v>
+        <v>620.7333722040972</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>617.8616178233355</v>
+        <v>617.86161782333</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>551.461689125429</v>
+        <v>551.4616891254225</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>547.8683994061089</v>
+        <v>547.8683994061146</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>487.4401734265381</v>
+        <v>487.4401734263009</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>483.001103988948</v>
+        <v>483.0011039887588</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>481.3687391534388</v>
+        <v>481.368739153439</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>460.1621903073868</v>
+        <v>460.1621903073948</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>447.2463785536743</v>
+        <v>447.2463785536683</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>425.1882854929369</v>
+        <v>425.1882854929175</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>419.9781482677912</v>
+        <v>419.9781482678011</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>418.1594874437025</v>
+        <v>418.1594874436957</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>411.931613500545</v>
+        <v>411.9316135005335</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>400.1447192432931</v>
+        <v>400.1447192432955</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>372.8926361363152</v>
+        <v>372.8926361363251</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>363.9726681842355</v>
+        <v>363.9726681842446</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>360.8394154443604</v>
+        <v>360.8394154443607</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>333.309233130052</v>
+        <v>333.3092331300415</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>329.1440855507022</v>
+        <v>329.1440855508787</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>321.8933141890387</v>
+        <v>321.8933141890229</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>320.7601756195803</v>
+        <v>320.7601756179466</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>305.6500091998284</v>
+        <v>305.6500091998509</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>277.1418282206239</v>
+        <v>277.1418282206217</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>235.7234759577973</v>
+        <v>235.7234759578049</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4217,7 +4217,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>219.6125833878724</v>
+        <v>219.6125833878686</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>214.5186410842951</v>
+        <v>214.5186410842969</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>198.1133771441772</v>
+        <v>198.1133771442533</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>194.9116361424053</v>
+        <v>194.9116361424043</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4261,7 +4261,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>193.8897153817314</v>
+        <v>193.8897153817162</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>186.179311948838</v>
+        <v>186.1793119488386</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>185.3067410604034</v>
+        <v>185.3067410603981</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>179.4600558415293</v>
+        <v>179.4600558415245</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>176.5067391094938</v>
+        <v>176.5067391094925</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>171.6229857928429</v>
+        <v>171.622985792843</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>169.8657338130129</v>
+        <v>169.8657338130137</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>167.8270568354017</v>
+        <v>167.8270568353992</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>167.8270568353992</v>
+        <v>167.8270568353986</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>158.7564002430195</v>
+        <v>158.7564002430181</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>154.5145712357986</v>
+        <v>154.5145712357982</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>150.6223653012873</v>
+        <v>150.6223653012874</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>143.7823401775808</v>
+        <v>143.7823401775813</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>143.7149702592408</v>
+        <v>143.7149702592413</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>122.0016490315644</v>
+        <v>122.0016490315657</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>120.586599874765</v>
+        <v>120.5865998747649</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>120.5388663632813</v>
+        <v>120.5388663632766</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>112.562694790744</v>
+        <v>112.5626947907526</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>110.1428967847327</v>
+        <v>110.142896784732</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>104.4035697859434</v>
+        <v>104.4035697859452</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>101.3881217282742</v>
+        <v>101.388121728271</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>97.94291985496073</v>
+        <v>97.94291985496309</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4679,7 +4679,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>96.95453707397968</v>
+        <v>96.95453707397937</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>81.65427104880206</v>
+        <v>81.65427104880176</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>71.08006289713526</v>
+        <v>71.08006289715078</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>62.95402352764604</v>
+        <v>62.95402352764599</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>60.89181244391506</v>
+        <v>60.89181244391343</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>58.74731017514855</v>
+        <v>58.74731017514873</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>52.64428212798603</v>
+        <v>52.64428212798627</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4954,7 +4954,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>52.26323525703233</v>
+        <v>52.26323525703221</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>51.54603090343828</v>
+        <v>51.54603090343903</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>49.97422962674016</v>
+        <v>49.97422962674051</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>49.35156057801563</v>
+        <v>49.3515605780164</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>48.04209894680742</v>
+        <v>48.04209894680735</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>45.58852761808661</v>
+        <v>45.58852761808698</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>44.44996142484369</v>
+        <v>44.44996142484371</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>37.80019070800313</v>
+        <v>37.80019070800311</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>36.65785958862342</v>
+        <v>36.65785958862446</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>35.97700114556678</v>
+        <v>35.97700114556682</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>35.51200170642321</v>
+        <v>35.51200170642326</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>35.26329771572888</v>
+        <v>35.2632977157288</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>34.43777917151999</v>
+        <v>34.43777917152001</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -5295,7 +5295,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>33.88288849670231</v>
+        <v>33.88288849670234</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>33.15214918101617</v>
+        <v>33.15214918101612</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>30.46918130091424</v>
+        <v>30.46918130091353</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>30.41034671489744</v>
+        <v>30.41034671489658</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>29.88235649034565</v>
+        <v>29.88235649034617</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>29.58416405144002</v>
+        <v>29.58416405144</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>27.7916127480689</v>
+        <v>27.79161274806942</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>24.96463994582988</v>
+        <v>24.96463994582941</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>23.36428195513109</v>
+        <v>23.36428195513086</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>22.70470690152432</v>
+        <v>22.70470690152215</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>21.82982577713106</v>
+        <v>21.8298257771298</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>19.78846389817094</v>
+        <v>19.78846389817184</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>19.19999828726014</v>
+        <v>19.1999982872601</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>17.80337333262741</v>
+        <v>17.80337333262727</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5570,7 +5570,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>17.80337333262741</v>
+        <v>17.80337333262727</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>16.26534653465143</v>
+        <v>16.26534653465245</v>
       </c>
       <c r="C365">
         <v>1e-05</v>
@@ -5647,7 +5647,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>15.211597930477</v>
+        <v>15.21159799375889</v>
       </c>
       <c r="C370">
         <v>2e-05</v>
@@ -5691,7 +5691,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>13.99999884075272</v>
+        <v>13.99999884075268</v>
       </c>
       <c r="C374">
         <v>3e-05</v>
@@ -5757,7 +5757,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>13.09080173946732</v>
+        <v>13.09080173946739</v>
       </c>
       <c r="C380">
         <v>5e-05</v>
@@ -5768,7 +5768,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>12.28355038778461</v>
+        <v>12.28355038778364</v>
       </c>
       <c r="C381">
         <v>9.000000000000001e-05</v>
@@ -5790,7 +5790,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>11.73222318224065</v>
+        <v>11.73222318223969</v>
       </c>
       <c r="C383">
         <v>0.00012</v>
@@ -5867,7 +5867,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>8.629575510434947</v>
+        <v>8.629575510429495</v>
       </c>
       <c r="C390">
         <v>0.00087</v>
@@ -5878,7 +5878,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>8.090240068908255</v>
+        <v>8.090240068908251</v>
       </c>
       <c r="C391">
         <v>0.00125</v>
@@ -5889,7 +5889,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>7.959090721912178</v>
+        <v>7.959090721912547</v>
       </c>
       <c r="C392">
         <v>0.00137</v>
@@ -5900,7 +5900,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>7.772098369549858</v>
+        <v>7.772098369551178</v>
       </c>
       <c r="C393">
         <v>0.00156</v>
@@ -5911,7 +5911,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>7.525303355647398</v>
+        <v>7.525303355648846</v>
       </c>
       <c r="C394">
         <v>0.00186</v>
@@ -5922,7 +5922,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>7.373571035688665</v>
+        <v>7.373571035671503</v>
       </c>
       <c r="C395">
         <v>0.00207</v>
@@ -5933,7 +5933,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>6.906630456788475</v>
+        <v>6.906630456778129</v>
       </c>
       <c r="C396">
         <v>0.00289</v>
@@ -5944,7 +5944,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>6.769821331069927</v>
+        <v>6.769821331069929</v>
       </c>
       <c r="C397">
         <v>0.00319</v>
@@ -5955,7 +5955,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>6.180559603566325</v>
+        <v>6.180559603467079</v>
       </c>
       <c r="C398">
         <v>0.00493</v>
@@ -5977,7 +5977,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>5.463227444165051</v>
+        <v>5.463227444164936</v>
       </c>
       <c r="C400">
         <v>0.00847</v>
